--- a/Human_Evaluation/Data/Mode2/Output/mode_2_all_releases_output.xlsx
+++ b/Human_Evaluation/Data/Mode2/Output/mode_2_all_releases_output.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkang/Documents/research/nlp_followupqg/Human_Evaluation/Data/Mode2/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334E2210-15A3-8D49-B0B9-1E04A10E6128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0302EB9C-6476-1C42-99E1-20DE01690C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="3" xr2:uid="{F31423FA-C481-0443-A9FC-0D6476A8EDDB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="4" xr2:uid="{F31423FA-C481-0443-A9FC-0D6476A8EDDB}"/>
   </bookViews>
   <sheets>
     <sheet name="release_1" sheetId="1" r:id="rId1"/>
     <sheet name="release_1_redo" sheetId="4" r:id="rId2"/>
     <sheet name="release_2" sheetId="2" r:id="rId3"/>
     <sheet name="release_3" sheetId="3" r:id="rId4"/>
+    <sheet name="release_2_redo" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
   <si>
     <t>data</t>
   </si>
@@ -155,6 +156,9 @@
   </si>
   <si>
     <t>{"Data":{"taskData":[{"3090_1_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3090_2_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3090_3_error":{"No Errors":false,"Redundant":true,"Repetitive":true,"Other Errors":false,"Wrong Semantic Collocation":false},"3090_4_error":{"No Errors":false,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":true},"3090_5_error":{"No Errors":false,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":true},"3091_1_error":{"No Errors":false,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3091_2_error":{"No Errors":false,"Redundant":true,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3091_3_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3091_4_error":{"No Errors":false,"Redundant":true,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3091_5_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3092_1_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3092_2_error":{"No Errors":false,"Redundant":false,"Repetitive":true,"Other Errors":false,"Wrong Semantic Collocation":false},"3092_3_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3092_4_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3092_5_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3092_6_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3092_7_error":{"No Errors":false,"Redundant":true,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3093_1_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3093_2_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3093_3_error":{"No Errors":false,"Redundant":true,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3093_4_error":{"No Errors":false,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":true},"3093_5_error":{"No Errors":false,"Redundant":false,"Repetitive":true,"Other Errors":false,"Wrong Semantic Collocation":false},"3094_1_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3094_2_error":{"No Errors":false,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":true},"3094_3_error":{"No Errors":false,"Redundant":true,"Repetitive":true,"Other Errors":false,"Wrong Semantic Collocation":false},"3094_4_error":{"No Errors":false,"Redundant":false,"Repetitive":true,"Other Errors":false,"Wrong Semantic Collocation":false},"3094_5_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3095_1_error":{"No Errors":false,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3095_2_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3095_3_error":{"No Errors":false,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3095_4_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3095_5_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3096_1_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3096_2_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3096_3_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3096_4_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3097_1_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3097_2_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3097_3_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3097_4_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3097_5_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3098_1_error":{"No Errors":false,"Redundant":true,"Repetitive":true,"Other Errors":false,"Wrong Semantic Collocation":false},"3098_2_error":{"No Errors":false,"Redundant":false,"Repetitive":true,"Other Errors":false,"Wrong Semantic Collocation":false},"3098_3_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3098_4_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3099_1_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3099_2_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3099_3_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3099_4_error":{"No Errors":false,"Redundant":true,"Repetitive":true,"Other Errors":false,"Wrong Semantic Collocation":false},"3099_5_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3099_6_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3099_7_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3090_1_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":true},"3090_1_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3090_1_validness":{"No":false,"Yes":true},"3090_2_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3090_2_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3090_2_validness":{"No":false,"Yes":true},"3090_3_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3090_3_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3090_3_validness":{"No":false,"Yes":true},"3090_4_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3090_4_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3090_4_validness":{"No":false,"Yes":true},"3090_5_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3090_5_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3090_5_validness":{"No":false,"Yes":true},"3091_1_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3091_1_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3091_1_validness":{"No":true,"Yes":false},"3091_2_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3091_2_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3091_2_validness":{"No":false,"Yes":true},"3091_3_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3091_3_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3091_3_validness":{"No":false,"Yes":true},"3091_4_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3091_4_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3091_4_validness":{"No":false,"Yes":true},"3091_5_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":true},"3091_5_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3091_5_validness":{"No":false,"Yes":true},"3092_1_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3092_1_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3092_1_validness":{"No":false,"Yes":true},"3092_2_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3092_2_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3092_2_validness":{"No":false,"Yes":true},"3092_3_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3092_3_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3092_3_validness":{"No":false,"Yes":true},"3092_4_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":true},"3092_4_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3092_4_validness":{"No":false,"Yes":true},"3092_5_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":true},"3092_5_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3092_5_validness":{"No":false,"Yes":true},"3092_6_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3092_6_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3092_6_validness":{"No":false,"Yes":true},"3092_7_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3092_7_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3092_7_validness":{"No":false,"Yes":true},"3093_1_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3093_1_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3093_1_validness":{"No":false,"Yes":true},"3093_2_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":true},"3093_2_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3093_2_validness":{"No":false,"Yes":true},"3093_3_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3093_3_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3093_3_validness":{"No":false,"Yes":true},"3093_4_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3093_4_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3093_4_validness":{"No":false,"Yes":true},"3093_5_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3093_5_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3093_5_validness":{"No":false,"Yes":true},"3094_1_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":true},"3094_1_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3094_1_validness":{"No":false,"Yes":true},"3094_2_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3094_2_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3094_2_validness":{"No":false,"Yes":true},"3094_3_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3094_3_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3094_3_validness":{"No":false,"Yes":true},"3094_4_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3094_4_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3094_4_validness":{"No":false,"Yes":true},"3094_5_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3094_5_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3094_5_validness":{"No":false,"Yes":true},"3095_1_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3095_1_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3095_1_validness":{"No":true,"Yes":false},"3095_2_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3095_2_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3095_2_validness":{"No":false,"Yes":true},"3095_3_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3095_3_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3095_3_validness":{"No":true,"Yes":false},"3095_4_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3095_4_relevance":{"Related":false,"Not Related":true,"Slightly Related":false,"Strongly Related":false},"3095_4_validness":{"No":false,"Yes":true},"3095_5_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3095_5_relevance":{"Related":false,"Not Related":true,"Slightly Related":false,"Strongly Related":false},"3095_5_validness":{"No":false,"Yes":true},"3096_1_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3096_1_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3096_1_validness":{"No":false,"Yes":true},"3096_2_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3096_2_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3096_2_validness":{"No":false,"Yes":true},"3096_3_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":true},"3096_3_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3096_3_validness":{"No":false,"Yes":true},"3096_4_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3096_4_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3096_4_validness":{"No":false,"Yes":true},"3097_1_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3097_1_relevance":{"Related":false,"Not Related":true,"Slightly Related":false,"Strongly Related":false},"3097_1_validness":{"No":false,"Yes":true},"3097_2_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3097_2_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3097_2_validness":{"No":false,"Yes":true},"3097_3_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3097_3_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3097_3_validness":{"No":false,"Yes":true},"3097_4_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":true},"3097_4_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3097_4_validness":{"No":false,"Yes":true},"3097_5_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3097_5_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3097_5_validness":{"No":false,"Yes":true},"3098_1_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3098_1_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3098_1_validness":{"No":false,"Yes":true},"3098_2_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3098_2_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3098_2_validness":{"No":false,"Yes":true},"3098_3_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3098_3_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3098_3_validness":{"No":false,"Yes":true},"3098_4_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":true},"3098_4_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3098_4_validness":{"No":false,"Yes":true},"3099_1_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3099_1_relevance":{"Related":false,"Not Related":true,"Slightly Related":false,"Strongly Related":false},"3099_1_validness":{"No":false,"Yes":true},"3099_2_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3099_2_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3099_2_validness":{"No":false,"Yes":true},"3099_3_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3099_3_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3099_3_validness":{"No":false,"Yes":true},"3099_4_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3099_4_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3099_4_validness":{"No":false,"Yes":true},"3099_5_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3099_5_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3099_5_validness":{"No":false,"Yes":true},"3099_6_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3099_6_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3099_6_validness":{"No":false,"Yes":true},"3099_7_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3099_7_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3099_7_validness":{"No":false,"Yes":true},"3090_1_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3090_2_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3090_3_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3090_4_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3090_5_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3091_1_newInformation":{"No Information":false,"Some Information":false,"Little Information":false,"A lot of Information":false},"3091_2_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3091_3_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3091_4_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3091_5_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3092_1_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3092_2_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3092_3_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3092_4_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3092_5_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3092_6_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3092_7_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3093_1_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3093_2_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3093_3_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3093_4_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3093_5_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3094_1_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3094_2_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3094_3_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3094_4_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3094_5_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3095_1_newInformation":{"No Information":false,"Some Information":false,"Little Information":false,"A lot of Information":false},"3095_2_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3095_3_newInformation":{"No Information":false,"Some Information":false,"Little Information":false,"A lot of Information":false},"3095_4_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3095_5_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3096_1_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3096_2_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3096_3_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3096_4_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3097_1_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3097_2_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3097_3_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3097_4_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3097_5_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3098_1_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3098_2_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3098_3_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3098_4_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3099_1_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3099_2_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3099_3_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3099_4_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3099_5_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3099_6_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3099_7_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false}}]}}</t>
+  </si>
+  <si>
+    <t>{"Data":{"taskData":[{"3000_1_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3000_2_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3000_3_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3000_4_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3001_1_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3001_2_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3001_3_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3002_1_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3002_2_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3002_3_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3003_1_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3003_2_error":{"No Errors":false,"Redundant":true,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3003_3_error":{"No Errors":false,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":true},"3003_4_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3003_5_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3004_1_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3004_2_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3004_3_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3004_4_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3004_5_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3004_6_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3005_1_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3005_2_error":{"No Errors":false,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3005_3_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3005_4_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3005_5_error":{"No Errors":false,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3005_6_error":{"No Errors":false,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3006_1_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3006_2_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3006_3_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3006_4_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3007_1_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3007_2_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3007_3_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3007_4_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3007_5_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3008_1_error":{"No Errors":false,"Redundant":true,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3008_2_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3008_3_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3008_4_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3009_1_error":{"No Errors":false,"Redundant":true,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3009_2_error":{"No Errors":true,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":false},"3009_3_error":{"No Errors":false,"Redundant":false,"Repetitive":false,"Other Errors":false,"Wrong Semantic Collocation":true},"3000_1_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3000_1_relevance":{"Related":false,"Not Related":true,"Slightly Related":false,"Strongly Related":false},"3000_1_validness":{"No":false,"Yes":true},"3000_2_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3000_2_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3000_2_validness":{"No":false,"Yes":true},"3000_3_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3000_3_relevance":{"Related":false,"Not Related":true,"Slightly Related":false,"Strongly Related":false},"3000_3_validness":{"No":false,"Yes":true},"3000_4_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":true},"3000_4_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3000_4_validness":{"No":false,"Yes":true},"3001_1_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3001_1_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3001_1_validness":{"No":false,"Yes":true},"3001_2_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3001_2_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3001_2_validness":{"No":false,"Yes":true},"3001_3_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3001_3_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3001_3_validness":{"No":false,"Yes":true},"3002_1_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3002_1_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3002_1_validness":{"No":false,"Yes":true},"3002_2_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":true},"3002_2_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3002_2_validness":{"No":false,"Yes":true},"3002_3_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3002_3_relevance":{"Related":false,"Not Related":true,"Slightly Related":false,"Strongly Related":false},"3002_3_validness":{"No":false,"Yes":true},"3003_1_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3003_1_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3003_1_validness":{"No":false,"Yes":true},"3003_2_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3003_2_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3003_2_validness":{"No":false,"Yes":true},"3003_3_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":true},"3003_3_relevance":{"Related":false,"Not Related":true,"Slightly Related":false,"Strongly Related":false},"3003_3_validness":{"No":false,"Yes":true},"3003_4_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3003_4_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3003_4_validness":{"No":false,"Yes":true},"3003_5_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3003_5_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3003_5_validness":{"No":false,"Yes":true},"3004_1_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3004_1_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3004_1_validness":{"No":false,"Yes":true},"3004_2_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3004_2_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3004_2_validness":{"No":false,"Yes":true},"3004_3_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3004_3_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3004_3_validness":{"No":false,"Yes":true},"3004_4_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3004_4_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3004_4_validness":{"No":false,"Yes":true},"3004_5_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3004_5_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3004_5_validness":{"No":false,"Yes":true},"3004_6_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3004_6_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3004_6_validness":{"No":false,"Yes":true},"3005_1_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3005_1_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3005_1_validness":{"No":false,"Yes":true},"3005_2_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3005_2_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3005_2_validness":{"No":true,"Yes":false},"3005_3_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3005_3_relevance":{"Related":false,"Not Related":true,"Slightly Related":false,"Strongly Related":false},"3005_3_validness":{"No":false,"Yes":true},"3005_4_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":true},"3005_4_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3005_4_validness":{"No":false,"Yes":true},"3005_5_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3005_5_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3005_5_validness":{"No":true,"Yes":false},"3005_6_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3005_6_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3005_6_validness":{"No":true,"Yes":false},"3006_1_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3006_1_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3006_1_validness":{"No":false,"Yes":true},"3006_2_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3006_2_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3006_2_validness":{"No":false,"Yes":true},"3006_3_reasoning":{"No Reasoning":false,"Complex Reasoning":true,"Minimal Reasoning":false,"Moderate Reasoning":false},"3006_3_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3006_3_validness":{"No":false,"Yes":true},"3006_4_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3006_4_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3006_4_validness":{"No":false,"Yes":true},"3007_1_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3007_1_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3007_1_validness":{"No":false,"Yes":true},"3007_2_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3007_2_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3007_2_validness":{"No":false,"Yes":true},"3007_3_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3007_3_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3007_3_validness":{"No":false,"Yes":true},"3007_4_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3007_4_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3007_4_validness":{"No":false,"Yes":true},"3007_5_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":true},"3007_5_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3007_5_validness":{"No":false,"Yes":true},"3008_1_reasoning":{"No Reasoning":true,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":false},"3008_1_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3008_1_validness":{"No":false,"Yes":true},"3008_2_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3008_2_relevance":{"Related":false,"Not Related":false,"Slightly Related":true,"Strongly Related":false},"3008_2_validness":{"No":false,"Yes":true},"3008_3_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3008_3_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3008_3_validness":{"No":false,"Yes":true},"3008_4_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3008_4_relevance":{"Related":false,"Not Related":false,"Slightly Related":false,"Strongly Related":true},"3008_4_validness":{"No":false,"Yes":true},"3009_1_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3009_1_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3009_1_validness":{"No":false,"Yes":true},"3009_2_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":false,"Moderate Reasoning":true},"3009_2_relevance":{"Related":true,"Not Related":false,"Slightly Related":false,"Strongly Related":false},"3009_2_validness":{"No":false,"Yes":true},"3009_3_reasoning":{"No Reasoning":false,"Complex Reasoning":false,"Minimal Reasoning":true,"Moderate Reasoning":false},"3009_3_relevance":{"Related":false,"Not Related":true,"Slightly Related":false,"Strongly Related":false},"3009_3_validness":{"No":false,"Yes":true},"3000_1_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3000_2_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3000_3_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3000_4_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3001_1_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3001_2_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3001_3_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3002_1_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3002_2_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3002_3_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3003_1_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3003_2_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3003_3_newInformation":{"No Information":false,"Some Information":false,"Little Information":false,"A lot of Information":true},"3003_4_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3003_5_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3004_1_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3004_2_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3004_3_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3004_4_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3004_5_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3004_6_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3005_1_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3005_2_newInformation":{"No Information":false,"Some Information":false,"Little Information":false,"A lot of Information":false},"3005_3_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3005_4_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3005_5_newInformation":{"No Information":false,"Some Information":false,"Little Information":false,"A lot of Information":false},"3005_6_newInformation":{"No Information":false,"Some Information":false,"Little Information":false,"A lot of Information":false},"3006_1_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3006_2_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3006_3_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3006_4_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3007_1_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3007_2_newInformation":{"No Information":false,"Some Information":false,"Little Information":false,"A lot of Information":true},"3007_3_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3007_4_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3007_5_newInformation":{"No Information":false,"Some Information":false,"Little Information":false,"A lot of Information":true},"3008_1_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3008_2_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false},"3008_3_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3008_4_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3009_1_newInformation":{"No Information":true,"Some Information":false,"Little Information":false,"A lot of Information":false},"3009_2_newInformation":{"No Information":false,"Some Information":false,"Little Information":true,"A lot of Information":false},"3009_3_newInformation":{"No Information":false,"Some Information":true,"Little Information":false,"A lot of Information":false}}]}}</t>
   </si>
 </sst>
 </file>
@@ -708,7 +712,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G38" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -802,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8693A3-85CD-6642-943C-C2D56F0B3C04}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -891,4 +895,100 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71392F6-6DF4-9D4C-81FE-A3EC66BDB93E}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>